--- a/data/trans_dic/P69$agotado-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P69$agotado-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4749733947782299</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3929786807433776</v>
+        <v>0.3929786807433775</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3557520539912114</v>
@@ -685,7 +685,7 @@
         <v>0.4779943792813189</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5888717969611407</v>
+        <v>0.5888717969611406</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3656389175003431</v>
@@ -697,7 +697,7 @@
         <v>0.4762803822299788</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4915952457081605</v>
+        <v>0.4915952457081604</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2566775126517645</v>
+        <v>0.2619384691134773</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.206381434991163</v>
+        <v>0.2097168891786153</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3674819437646706</v>
+        <v>0.3594650122016416</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2655411697921352</v>
+        <v>0.2650843159776194</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2205772937247595</v>
+        <v>0.2262811875276701</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2530219784968686</v>
+        <v>0.2603979879925258</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3645769273588402</v>
+        <v>0.3626293940446602</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4701698008447369</v>
+        <v>0.4640765704562805</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2861255980954588</v>
+        <v>0.2854957937164954</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2597546456517644</v>
+        <v>0.2675939103811041</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3886901241495448</v>
+        <v>0.3788850915989417</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3991941691732178</v>
+        <v>0.4017518680212063</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4774986398386684</v>
+        <v>0.4855321150864665</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4289859988636787</v>
+        <v>0.4327522798399536</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5918019120364402</v>
+        <v>0.5830041170663822</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5391051680874656</v>
+        <v>0.5415644460575444</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5157399824475301</v>
+        <v>0.5145317704564977</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5095916727424086</v>
+        <v>0.5010696923243226</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.603341665996455</v>
+        <v>0.6037316544828323</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7016801613811767</v>
+        <v>0.6993723581762271</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4552384568473079</v>
+        <v>0.4528993060839474</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.427214506829816</v>
+        <v>0.4188462045445327</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5665893552460129</v>
+        <v>0.5564196997071689</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5842618024867781</v>
+        <v>0.585048254205469</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3398863547807397</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.37128315817008</v>
+        <v>0.3712831581700801</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2911766384673027</v>
@@ -833,7 +833,7 @@
         <v>0.3429082846621214</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4259327723943842</v>
+        <v>0.4259327723943843</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2609342455867413</v>
+        <v>0.2593133959260953</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1091935910345865</v>
+        <v>0.1138398434738056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2537252241427597</v>
+        <v>0.2539782522619431</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2723105801378838</v>
+        <v>0.2725495159114986</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1784249550431364</v>
+        <v>0.179147173099177</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2566056054445996</v>
+        <v>0.2542529147317675</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2341035483741668</v>
+        <v>0.2279652603272546</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3991011389707881</v>
+        <v>0.4055903151699104</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2612235560588556</v>
+        <v>0.2542314545937843</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1937236725027898</v>
+        <v>0.1989988806083489</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2743523533405428</v>
+        <v>0.271922085095578</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3528724646278267</v>
+        <v>0.3553116953303402</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4218435277076494</v>
+        <v>0.4070704578418903</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2794651916303961</v>
+        <v>0.2797206844868638</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4453971774351221</v>
+        <v>0.4452540837968506</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4789395371485242</v>
+        <v>0.4766282789591114</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4097639175240407</v>
+        <v>0.3963975092999226</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5256507160299142</v>
+        <v>0.5172460486248608</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4814190271786097</v>
+        <v>0.4811264804673055</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5808126341962579</v>
+        <v>0.5873756292473697</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3859568239737559</v>
+        <v>0.3821758974832928</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3478707303155031</v>
+        <v>0.3555545443616986</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4167054750809149</v>
+        <v>0.4318419054829344</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4945574120034238</v>
+        <v>0.4937069097791877</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3531447666304367</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4258058785551021</v>
+        <v>0.4258058785551022</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2965629412813916</v>
@@ -957,7 +957,7 @@
         <v>0.4320386259410618</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3297242071775727</v>
+        <v>0.3297242071775728</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2750731179662104</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1990391698847432</v>
+        <v>0.1910818468664172</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1177984715112525</v>
+        <v>0.1280388841076212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2489952826107938</v>
+        <v>0.2525276146190329</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3199074105707322</v>
+        <v>0.3242490806122755</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2023077941318243</v>
+        <v>0.2077444817291303</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1955396240702648</v>
+        <v>0.1942106901358525</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2929632998787389</v>
+        <v>0.2829429074029323</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2523730248755194</v>
+        <v>0.2495041365285991</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2180103071882309</v>
+        <v>0.2212491337954957</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1659412546114738</v>
+        <v>0.1733187161434865</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2986793778664633</v>
+        <v>0.2995087797635956</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3062320147138937</v>
+        <v>0.3108732903070128</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3534778952484686</v>
+        <v>0.3442138926923108</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2753247659904332</v>
+        <v>0.2833371861120502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4547711980834137</v>
+        <v>0.4668088468729349</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5461252718703644</v>
+        <v>0.5454151962097481</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4086870997362155</v>
+        <v>0.4228184290665167</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4963658115026375</v>
+        <v>0.4784323334664992</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5715555256174017</v>
+        <v>0.5702607917285158</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4145613909839828</v>
+        <v>0.4262457691087407</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3371214776973959</v>
+        <v>0.3446698692811005</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3123844631473325</v>
+        <v>0.3067402405460232</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4610719097399142</v>
+        <v>0.4664197477965855</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4477957891098608</v>
+        <v>0.4507562077255723</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2153356565304149</v>
+        <v>0.2184502807864607</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1817179835947643</v>
+        <v>0.1605272767039415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2783830242745736</v>
+        <v>0.2801416511224816</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1765997209177133</v>
+        <v>0.1813985470331839</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1624792640248246</v>
+        <v>0.1643535735041321</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1572417193823058</v>
+        <v>0.146133893562989</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2473163779753993</v>
+        <v>0.2539709408031898</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2597597565087559</v>
+        <v>0.2762629053249306</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2267293789974137</v>
+        <v>0.2263600629231024</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1925017033014792</v>
+        <v>0.1997692433626319</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3127105673004891</v>
+        <v>0.3147608675317784</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2384328273148389</v>
+        <v>0.246621064789779</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4487447313338284</v>
+        <v>0.444288492178184</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.450961399794251</v>
+        <v>0.4478178711441846</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5476549828508264</v>
+        <v>0.544115771858386</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4049067635437777</v>
+        <v>0.4055103984050199</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4697337766683578</v>
+        <v>0.4907662678509432</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4548274617590641</v>
+        <v>0.4363702846874733</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5532095044698901</v>
+        <v>0.5622956254477122</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.44732028004719</v>
+        <v>0.4565489871128192</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4078962416089543</v>
+        <v>0.4095849297724681</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3911910115949508</v>
+        <v>0.4022858627520412</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5023225126722481</v>
+        <v>0.5117063607355112</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3928698982362808</v>
+        <v>0.3916156027036438</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3888619606186736</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3647144757852907</v>
+        <v>0.3647144757852906</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3077970380900666</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2729994480930364</v>
+        <v>0.2732959653132987</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1949604451316194</v>
+        <v>0.1904172104436525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3342294237239044</v>
+        <v>0.3374357840671912</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3123969653761526</v>
+        <v>0.312477394798057</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2499826198199568</v>
+        <v>0.2491175096472877</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2798181742471796</v>
+        <v>0.280693458011828</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3471657890681583</v>
+        <v>0.3479022951737886</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3849762939872851</v>
+        <v>0.3852888824443764</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2783337553679417</v>
+        <v>0.2764930752277935</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2427764581787448</v>
+        <v>0.2449727482128806</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3571477151274497</v>
+        <v>0.3565642922471807</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.357445076190225</v>
+        <v>0.3578355848396301</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3623789901640502</v>
+        <v>0.3624026539284253</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2850212896858084</v>
+        <v>0.2863911516959972</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4510966244802004</v>
+        <v>0.4399059257966854</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4281310149948697</v>
+        <v>0.4261544273852849</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3751146895309611</v>
+        <v>0.3702513128093003</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.410980412738229</v>
+        <v>0.4210872745722143</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4851958805437624</v>
+        <v>0.4810040163889165</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4770977748905295</v>
+        <v>0.478140818069718</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3503569665684023</v>
+        <v>0.3537740996175125</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3254097759396504</v>
+        <v>0.3262658242573618</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4423951452328585</v>
+        <v>0.4402900662480295</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4370662971986858</v>
+        <v>0.43242484069334</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21660</v>
+        <v>22104</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17216</v>
+        <v>17494</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>30498</v>
+        <v>29833</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15209</v>
+        <v>15183</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10029</v>
+        <v>10288</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17481</v>
+        <v>17991</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23072</v>
+        <v>22949</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>27301</v>
+        <v>26947</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>37154</v>
+        <v>37072</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>39614</v>
+        <v>40810</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>56856</v>
+        <v>55422</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>46044</v>
+        <v>46339</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40294</v>
+        <v>40972</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35785</v>
+        <v>36099</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>49115</v>
+        <v>48385</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30878</v>
+        <v>31019</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>23449</v>
+        <v>23394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>35208</v>
+        <v>34619</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>38182</v>
+        <v>38207</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>40744</v>
+        <v>40610</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>59114</v>
+        <v>58810</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>65153</v>
+        <v>63877</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>82878</v>
+        <v>81391</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>67391</v>
+        <v>67481</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>45005</v>
+        <v>44726</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9491</v>
+        <v>9895</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>27891</v>
+        <v>27919</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>34289</v>
+        <v>34319</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11685</v>
+        <v>11732</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15947</v>
+        <v>15801</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>14079</v>
+        <v>13710</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>41491</v>
+        <v>42165</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>62163</v>
+        <v>60499</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>28877</v>
+        <v>29663</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>46658</v>
+        <v>46245</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>81118</v>
+        <v>81678</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>72759</v>
+        <v>70211</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24291</v>
+        <v>24313</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>48960</v>
+        <v>48945</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>60307</v>
+        <v>60016</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26835</v>
+        <v>25960</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>32667</v>
+        <v>32144</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>28954</v>
+        <v>28936</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>60381</v>
+        <v>61064</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>91845</v>
+        <v>90945</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>51855</v>
+        <v>53000</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>70868</v>
+        <v>73442</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>113688</v>
+        <v>113492</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>29236</v>
+        <v>28067</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12597</v>
+        <v>13692</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21940</v>
+        <v>22251</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>30916</v>
+        <v>31335</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15736</v>
+        <v>16159</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8571</v>
+        <v>8512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13537</v>
+        <v>13074</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>23832</v>
+        <v>23561</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>48980</v>
+        <v>49708</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>25019</v>
+        <v>26131</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>40118</v>
+        <v>40230</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>58513</v>
+        <v>59399</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>51921</v>
+        <v>50560</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29443</v>
+        <v>30300</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40072</v>
+        <v>41132</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52778</v>
+        <v>52709</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31789</v>
+        <v>32888</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21756</v>
+        <v>20970</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>26409</v>
+        <v>26349</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>39148</v>
+        <v>40252</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>75740</v>
+        <v>77436</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>47098</v>
+        <v>46247</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>61931</v>
+        <v>62649</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>85562</v>
+        <v>86127</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14586</v>
+        <v>14797</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8546</v>
+        <v>7549</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18413</v>
+        <v>18530</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17261</v>
+        <v>17730</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5099</v>
+        <v>5158</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6069</v>
+        <v>5640</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11541</v>
+        <v>11852</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21263</v>
+        <v>22614</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>22473</v>
+        <v>22436</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>16482</v>
+        <v>17105</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>35277</v>
+        <v>35508</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>42822</v>
+        <v>44293</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30396</v>
+        <v>30094</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21208</v>
+        <v>21060</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36224</v>
+        <v>35990</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>39577</v>
+        <v>39636</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14741</v>
+        <v>15401</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>17554</v>
+        <v>16842</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25816</v>
+        <v>26240</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>36615</v>
+        <v>37371</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>40430</v>
+        <v>40597</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>33495</v>
+        <v>34445</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>56667</v>
+        <v>57726</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>70559</v>
+        <v>70333</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>128715</v>
+        <v>128855</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>63226</v>
+        <v>61753</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>116036</v>
+        <v>117149</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>117954</v>
+        <v>117984</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>55026</v>
+        <v>54836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>59786</v>
+        <v>59973</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>75091</v>
+        <v>75251</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>130243</v>
+        <v>130349</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>192497</v>
+        <v>191224</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>130605</v>
+        <v>131786</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>201243</v>
+        <v>200914</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>255892</v>
+        <v>256171</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>170856</v>
+        <v>170867</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>92433</v>
+        <v>92878</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>156609</v>
+        <v>152724</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>161652</v>
+        <v>160906</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>82571</v>
+        <v>81500</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>87810</v>
+        <v>89969</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>104947</v>
+        <v>104040</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>161409</v>
+        <v>161762</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>242309</v>
+        <v>244672</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>175058</v>
+        <v>175519</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>249278</v>
+        <v>248092</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>312892</v>
+        <v>309569</v>
       </c>
     </row>
     <row r="24">
